--- a/5 - Banco de Dados/Aula 66 - 06_12_2021/Nota Fiscal.xlsx
+++ b/5 - Banco de Dados/Aula 66 - 06_12_2021/Nota Fiscal.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COM\Human_Resources\01.Engineering_Tech_School\02.Internal\10 - Aprendizes\5 - Desenvolvimento de Sistemas\1 - Alunos\Bruno Viotto Dos Santos\5 - Banco de Dados\Aula 66 - 06_12_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win8\Desktop\GitHub\Bosch\5 - Banco de Dados\Aula 66 - 06_12_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="EX002" sheetId="3" r:id="rId3"/>
     <sheet name="EX003" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t>nome_fantasia</t>
   </si>
@@ -196,9 +196,6 @@
     <t>rua</t>
   </si>
   <si>
-    <t>1FN</t>
-  </si>
-  <si>
     <t>Não Normalizado</t>
   </si>
   <si>
@@ -229,40 +226,112 @@
     <t>Empresa</t>
   </si>
   <si>
-    <t>serviço</t>
-  </si>
-  <si>
-    <t>empresa_id</t>
-  </si>
-  <si>
     <t>Endereço</t>
   </si>
   <si>
-    <t>endereço_id</t>
-  </si>
-  <si>
     <t>Nota_Fiscal</t>
   </si>
   <si>
-    <t>quantidade</t>
-  </si>
-  <si>
     <t>Serviço</t>
+  </si>
+  <si>
+    <t>AutorId</t>
+  </si>
+  <si>
+    <t>Empresa_ID</t>
+  </si>
+  <si>
+    <t>Nome_Dono</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>Servico_ID</t>
+  </si>
+  <si>
+    <t>Servico</t>
+  </si>
+  <si>
+    <t>Preço_Unitario</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Telefone_ID</t>
+  </si>
+  <si>
+    <t>Endereco_ID</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Cliente_ID</t>
+  </si>
+  <si>
+    <t>Nome_Empresa</t>
+  </si>
+  <si>
+    <t>Servico_Empresa</t>
+  </si>
+  <si>
+    <t>Servico_Empresa_ID</t>
+  </si>
+  <si>
+    <t>Pedido_Servico</t>
+  </si>
+  <si>
+    <t>Pedido_Servico_ID</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nota_Fiscal_ID</t>
+  </si>
+  <si>
+    <t>Data_Emissao</t>
+  </si>
+  <si>
+    <t>Venda_Servico</t>
+  </si>
+  <si>
+    <t>Venda_Servico_ID</t>
+  </si>
+  <si>
+    <t>FN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FN1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -279,8 +348,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,12 +388,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,12 +406,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -350,11 +443,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,38 +539,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,18 +909,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -703,39 +934,55 @@
     <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="16"/>
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -769,10 +1016,10 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
         <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>58</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -790,249 +1037,576 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
+    <row r="6" spans="1:29" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="U7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="V7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="W7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="X7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="X7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="O12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="Y12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AC12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S13" t="s">
-        <v>61</v>
-      </c>
-      <c r="T13" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V13" t="s">
-        <v>67</v>
-      </c>
-      <c r="W13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>71</v>
-      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O12:W12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="F12:I12"/>
+  <mergeCells count="12">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="J12:J37"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A6:AC6"/>
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1059,18 +1633,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1163,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1755,7 @@
     <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1209,12 +1783,18 @@
       <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>21237</v>
       </c>
       <c r="B2" t="s">
@@ -1226,7 +1806,7 @@
       <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>21237</v>
       </c>
       <c r="I2" t="s">
@@ -1235,12 +1815,18 @@
       <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="N2" s="5">
+        <v>21237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>33455</v>
       </c>
       <c r="B3" t="s">
@@ -1255,7 +1841,7 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>33455</v>
       </c>
       <c r="I3" t="s">
@@ -1264,12 +1850,18 @@
       <c r="J3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="N3" s="5">
+        <v>33455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>12312</v>
       </c>
       <c r="B4" t="s">
@@ -1281,31 +1873,34 @@
       <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
+        <v>12312</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="5">
         <v>33455</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H5" s="5">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5">
         <v>12312</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1331,10 +1926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1360,13 +1955,13 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1377,13 +1972,13 @@
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1394,13 +1989,13 @@
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1411,13 +2006,13 @@
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>1</v>
       </c>
     </row>

--- a/5 - Banco de Dados/Aula 66 - 06_12_2021/Nota Fiscal.xlsx
+++ b/5 - Banco de Dados/Aula 66 - 06_12_2021/Nota Fiscal.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>nome_fantasia</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>FN1</t>
+  </si>
+  <si>
+    <t>Valor_Total</t>
   </si>
 </sst>
 </file>
@@ -545,89 +548,89 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,14 +915,14 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -963,25 +966,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -1038,575 +1041,577 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="36" t="s">
+      <c r="U7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="36" t="s">
+      <c r="V7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="36" t="s">
+      <c r="W7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="X7" s="36" t="s">
+      <c r="X7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y7" s="36" t="s">
+      <c r="Y7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="36" t="s">
+      <c r="Z7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA7" s="36" t="s">
+      <c r="AA7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="36" t="s">
+      <c r="AB7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AC7" s="36" t="s">
+      <c r="AC7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="9"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="9"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="9"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="D37" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="9"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:AC6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A36:C36"/>
     <mergeCell ref="J12:J37"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A6:AC6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1633,18 +1638,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1926,10 +1931,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
